--- a/Onyx/wwwroot/formats/Emp_Calendar_Event_Import_Sample.xlsx
+++ b/Onyx/wwwroot/formats/Emp_Calendar_Event_Import_Sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\HRMS\Onyx\Onyx\wwwroot\format\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\HRMS\Onyx\Onyx\wwwroot\formats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791D4989-0470-44BD-A799-1E9D98DD1116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F6243D-3BEB-47F4-B984-37EB3367D882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9B86C3F9-D661-45A8-8B08-1570B42B6F13}"/>
+    <workbookView xWindow="3840" yWindow="1896" windowWidth="17280" windowHeight="8880" xr2:uid="{9B86C3F9-D661-45A8-8B08-1570B42B6F13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
-    <t>Employee Code</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>XXX</t>
+  </si>
+  <si>
+    <t>EmpCd</t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -429,36 +429,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>45324</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">

--- a/Onyx/wwwroot/formats/Emp_Calendar_Event_Import_Sample.xlsx
+++ b/Onyx/wwwroot/formats/Emp_Calendar_Event_Import_Sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\HRMS\Onyx\Onyx\wwwroot\formats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F6243D-3BEB-47F4-B984-37EB3367D882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541AD4D8-E500-4425-A457-CEC37E43C220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="1896" windowWidth="17280" windowHeight="8880" xr2:uid="{9B86C3F9-D661-45A8-8B08-1570B42B6F13}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9B86C3F9-D661-45A8-8B08-1570B42B6F13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
     <t>XXX</t>
   </si>
   <si>
-    <t>EmpCd</t>
+    <t>Employee Code</t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Onyx/wwwroot/formats/Emp_Calendar_Event_Import_Sample.xlsx
+++ b/Onyx/wwwroot/formats/Emp_Calendar_Event_Import_Sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\HRMS\Onyx\Onyx\wwwroot\formats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541AD4D8-E500-4425-A457-CEC37E43C220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F9B401-38D4-408B-BF6B-91348B00AA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9B86C3F9-D661-45A8-8B08-1570B42B6F13}"/>
+    <workbookView xWindow="4464" yWindow="2172" windowWidth="17280" windowHeight="8880" xr2:uid="{9B86C3F9-D661-45A8-8B08-1570B42B6F13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -415,9 +415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8294A7E-593D-4D3E-8D17-7C6124CC1414}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
